--- a/Figure 2 + S1/2A - Phyla infected by microsporidia/Fig 2A - Host phyla frequencies.xlsx
+++ b/Figure 2 + S1/2A - Phyla infected by microsporidia/Fig 2A - Host phyla frequencies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure 2 (Jason)\2A - Phyla infected by microsporidia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure 2\2A - Phyla infected by microsporidia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEDFF94-72EF-482C-9B4B-913E2F99C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36598EA6-B413-480C-ADC9-97D005CE3FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Phylum name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Cephalorhyncha</t>
   </si>
   <si>
-    <t>Dicyemida</t>
-  </si>
-  <si>
     <t>Gastrotricha</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>uninfected metazoans</t>
   </si>
   <si>
-    <t>median extant species</t>
-  </si>
-  <si>
     <t>Brachiopoda</t>
   </si>
   <si>
@@ -169,13 +163,16 @@
   </si>
   <si>
     <t>**Cercozoa</t>
+  </si>
+  <si>
+    <t>**Dicyemida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -232,6 +229,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -280,11 +291,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +325,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +375,7 @@
           <c:x val="9.0607401614201818E-2"/>
           <c:y val="2.8922149812505127E-2"/>
           <c:w val="0.90600897366031163"/>
-          <c:h val="0.62677840822053177"/>
+          <c:h val="0.5739570010987145"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -467,9 +480,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'infected phyla'!$A$2:$A$20</c:f>
+              <c:f>'infected phyla'!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Arthropoda</c:v>
                 </c:pt>
@@ -498,33 +511,36 @@
                   <c:v>Rotifera</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Nemertea</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>**Acanthocephala</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Cephalorhyncha</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dicyemida</c:v>
+                  <c:v>Porifera</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Gastrotricha</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Cephalorhyncha</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>**Dicyemida</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Phoronida</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Porifera</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>**Apicomplexa</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Ciliophora</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Amoebozoa</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>**Cercozoa</c:v>
                 </c:pt>
               </c:strCache>
@@ -532,21 +548,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'infected phyla'!$B$2:$B$20</c:f>
+              <c:f>'infected phyla'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>987</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28</c:v>
@@ -564,10 +580,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -582,15 +598,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -678,9 +697,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'infected phyla'!$A$2:$A$20</c:f>
+              <c:f>'infected phyla'!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Arthropoda</c:v>
                 </c:pt>
@@ -709,33 +728,36 @@
                   <c:v>Rotifera</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Nemertea</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>**Acanthocephala</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Cephalorhyncha</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dicyemida</c:v>
+                  <c:v>Porifera</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Gastrotricha</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Cephalorhyncha</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>**Dicyemida</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Phoronida</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Porifera</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>**Apicomplexa</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Ciliophora</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Amoebozoa</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>**Cercozoa</c:v>
                 </c:pt>
               </c:strCache>
@@ -743,10 +765,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'infected phyla'!$C$2:$C$20</c:f>
+              <c:f>'infected phyla'!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1082297</c:v>
                 </c:pt>
@@ -775,33 +797,36 @@
                   <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1330</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>237</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>122</c:v>
+                  <c:v>9092</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>9092</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>8613</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1067,8 +1092,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71797063068708766"/>
-          <c:y val="0.92506343034126082"/>
+          <c:x val="0.50421918893355955"/>
+          <c:y val="4.1228453719944769E-2"/>
           <c:w val="0.28122471444229263"/>
           <c:h val="6.6761486699664307E-2"/>
         </c:manualLayout>
@@ -1691,16 +1716,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409796</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>33225</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110757</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>598081</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>177209</xdr:rowOff>
+      <xdr:rowOff>110756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1727,10 +1752,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>664534</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88605</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>498401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44303</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1398973" cy="446212"/>
     <xdr:sp macro="" textlink="">
@@ -1746,7 +1771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7409563" y="1882849"/>
+          <a:off x="11839796" y="1041105"/>
           <a:ext cx="1398973" cy="446212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1788,10 +1813,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>783718</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85947</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>318544</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1330621" cy="446212"/>
     <xdr:sp macro="" textlink="">
@@ -1807,7 +1832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13310201" y="1880191"/>
+          <a:off x="18404968" y="1027371"/>
           <a:ext cx="1330621" cy="446212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2132,741 +2157,784 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="F1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18">
-        <v>987</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="B2" s="17">
+        <v>994</v>
+      </c>
+      <c r="C2" s="18">
         <v>1082297</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6">
-        <f>MEDIAN(C2:C16)</f>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <f>MEDIAN(C2:C17)</f>
+        <v>4444.5</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17">
+        <v>244</v>
+      </c>
+      <c r="C3" s="18">
+        <v>69913</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="17">
+        <v>57</v>
+      </c>
+      <c r="C4" s="18">
+        <v>18616</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17">
+        <v>35</v>
+      </c>
+      <c r="C5" s="18">
+        <v>14399</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
+        <v>28</v>
+      </c>
+      <c r="C6" s="18">
+        <v>65442</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17">
+        <v>17</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3455</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18">
         <v>5434</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="18">
-        <v>242</v>
-      </c>
-      <c r="C3" s="19">
-        <v>69913</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="D8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="17">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18">
+        <v>11151</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2014</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1373</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="18">
-        <v>57</v>
-      </c>
-      <c r="C4" s="19">
-        <v>18616</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="18">
-        <v>34</v>
-      </c>
-      <c r="C5" s="19">
-        <v>14399</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>9092</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>852</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>237</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>122</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
+        <v>19</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="17">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17">
         <v>8</v>
       </c>
-      <c r="B6" s="18">
-        <v>28</v>
-      </c>
-      <c r="C6" s="19">
-        <v>65442</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="18">
-        <v>17</v>
-      </c>
-      <c r="C7" s="19">
-        <v>3455</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19">
-        <v>5434</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="18">
-        <v>5</v>
-      </c>
-      <c r="C9" s="19">
-        <v>11151</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="C19" s="18">
+        <v>48</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="19">
-        <v>2014</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="C20" s="18">
+        <v>8613</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1330</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19">
-        <v>237</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
-        <v>122</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19">
-        <v>852</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19">
-        <v>19</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19">
-        <v>9092</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="18">
-        <v>20</v>
-      </c>
-      <c r="C17" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="19">
-        <v>48</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="18">
-        <v>4</v>
-      </c>
-      <c r="C19" s="19">
-        <v>8613</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="18">
+      <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C21" s="22">
         <v>100</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="D21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{6A926740-D45B-472F-B92B-3C597CC0C7ED}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{6A926740-D45B-472F-B92B-3C597CC0C7ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2879,219 +2947,206 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="12">
+        <v>396</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15">
+        <v>132</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="14"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15">
+        <v>200</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15">
+        <v>6828</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
+        <v>171</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15">
+        <v>100</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15">
+        <v>139</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15">
+        <v>361</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15">
+        <v>167</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="15">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="13">
-        <v>396</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14">
-        <f>MEDIAN(B2:B18)</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="16">
-        <v>132</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="15"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16">
-        <v>200</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="16">
-        <v>6828</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="16">
-        <v>171</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="16">
-        <v>100</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="16">
-        <v>139</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="16">
-        <v>361</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1371</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="16">
-        <v>167</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16">
-        <v>25</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="15">
+        <v>205</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="15">
+        <v>1018</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="16">
-        <v>205</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1018</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="B17" s="15">
         <v>456</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
     </row>
